--- a/outputs-r202/p__Firmicutes_C.xlsx
+++ b/outputs-r202/p__Firmicutes_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>c__Negativicutes</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1065,6 +1210,11 @@
         <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>c__Negativicutes</t>
         </is>

--- a/outputs-r202/p__Firmicutes_C.xlsx
+++ b/outputs-r202/p__Firmicutes_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG014.fasta</t>
+          <t>RUG005.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -495,7 +495,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG019.fasta</t>
+          <t>RUG014.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG043.fasta</t>
+          <t>RUG019.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +547,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG045.fasta</t>
+          <t>RUG043.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG072.fasta</t>
+          <t>RUG045.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -599,7 +599,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG077.fasta</t>
+          <t>RUG072.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -625,7 +625,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG097.fasta</t>
+          <t>RUG077.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -651,7 +651,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG102.fasta</t>
+          <t>RUG097.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -677,7 +677,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG140.fasta</t>
+          <t>RUG102.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -703,7 +703,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG162.fasta</t>
+          <t>RUG140.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -729,7 +729,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG179.fasta</t>
+          <t>RUG162.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -755,7 +755,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG276.fasta</t>
+          <t>RUG179.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -781,7 +781,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG371.fasta</t>
+          <t>RUG276.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -807,7 +807,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG384.fasta</t>
+          <t>RUG371.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -833,7 +833,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG411.fasta</t>
+          <t>RUG384.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -859,7 +859,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG556.fasta</t>
+          <t>RUG388.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -885,7 +885,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG618.fasta</t>
+          <t>RUG411.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -911,7 +911,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG628.fasta</t>
+          <t>RUG556.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -937,7 +937,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG633.fasta</t>
+          <t>RUG596.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -963,7 +963,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG643.fasta</t>
+          <t>RUG618.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -989,7 +989,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG720.fasta</t>
+          <t>RUG628.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1015,7 +1015,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG730.fasta</t>
+          <t>RUG633.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1041,7 +1041,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG758.fasta</t>
+          <t>RUG730.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1067,7 +1067,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG762.fasta</t>
+          <t>RUG752.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1093,7 +1093,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG781.fasta</t>
+          <t>RUG758.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1119,7 +1119,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG848.fasta</t>
+          <t>RUG762.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1145,7 +1145,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hRUG860.fasta</t>
+          <t>RUG848.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1171,7 +1171,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>hRUG885.fasta</t>
+          <t>hRUG860.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1197,24 +1197,76 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>hRUG872.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>hRUG885.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>hRUG887.fasta</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>c__Negativicutes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c__Negativicutes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>c__Negativicutes</t>
         </is>
